--- a/pred_ohlcv/54_21/2019-10-21 BCD ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-21 BCD ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>4429.30100266</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>9838.239214249999</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -522,7 +522,7 @@
         <v>9045.750114249999</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>8873.250114249999</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>7304.401814249998</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>9239.787514249998</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>14765.91751425</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>14765.91751425</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>14765.91751425</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>14765.91751425</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>15724.07041425</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>7740.86221425</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>9497.80191425</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>11446.97751425</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>9593.349009670001</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>9563.415309670001</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>9384.245209670002</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>12514.70730967</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>12310.70910967</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>11041.05830967</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>9759.812809670002</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>9759.812809670002</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>10577.05790967</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>10577.05790967</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>9314.136209670001</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>10882.16120967</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>10882.16120967</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>10882.16120967</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>10882.16120967</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>10201.45220967</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>12932.86080967</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>16018.88740967</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>49371.34169808</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>49371.34169808</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>54779.50182491001</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>47642.45582491001</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>47744.45582491001</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>47621.57582491001</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>47621.57582491001</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>47544.01772491001</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>47371.40802491001</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>45347.00922491001</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>45347.00922491001</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>45347.00922491001</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>39602.79162491</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>39602.79162491</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>39102.79162491</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>39112.79162491</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>39221.09482491</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>39221.09482491</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>39221.09482491</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>39221.09482491</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>39221.09482491</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>40167.09492491</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>40167.09492491</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>40167.09492491</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>39358.43612491</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>39358.43612491</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>36375.15322491001</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>38594.74942491001</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>44033.45572491</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>44033.45572491</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>45467.38662491</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>45467.38662491</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>45467.38662491</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>45467.38662491</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>45467.38662491</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>45467.38662491</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>45467.38662491</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>45467.38662491</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>45467.38662491</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>45467.38662491</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>45467.38662491</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>45491.79012491</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>42790.45772491</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>43237.45772491</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>41653.45672491001</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-21 BCD ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-21 BCD ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>4429.30100266</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>9838.239214249999</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>9218.250114249999</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>9045.750114249999</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>8873.250114249999</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>8515.859014249998</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>8516.859014249998</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -678,7 +678,7 @@
         <v>7276.643914249998</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>7276.643914249998</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>7276.643914249998</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>7276.643914249998</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>7453.310414249999</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>7237.945514249999</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>7237.945514249999</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>7304.401814249998</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>7304.401814249998</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>7298.633714249998</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>9239.787514249998</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>9239.787514249998</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>14765.91751425</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>12514.70730967</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>12310.70910967</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>11041.05830967</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>9759.812809670002</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>9759.812809670002</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>10577.05790967</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>10128.38040967</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>18029.15300967</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>10162.16120967</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>10201.45220967</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>49371.34169808</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>49371.34169808</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>47642.45582491001</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>47744.45582491001</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>47621.57582491001</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>47544.01772491001</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>39602.79162491</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>39602.79162491</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>39102.79162491</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>39112.79162491</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>39221.09482491</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>39221.09482491</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>39221.09482491</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>39221.09482491</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>39221.09482491</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>40167.09492491</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>40167.09492491</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>40167.09492491</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>45467.38662491</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>45467.38662491</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>45467.38662491</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>45467.38662491</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>45467.38662491</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>45467.38662491</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>45467.38662491</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>45467.38662491</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>45467.38662491</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>45467.38662491</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>45491.79012491</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>42790.45772491</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>43237.45772491</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>41653.45672491001</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
